--- a/detallesBasedatosPrueba.xlsx
+++ b/detallesBasedatosPrueba.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -924,6 +924,44 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Victoria Melannye Tibanta Miranda</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1728222044155</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1728220441</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>PLANTILLA DE APORTES</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>32</v>
+      </c>
+      <c r="G20" t="n">
+        <v>23</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Dr. Atiencia Atiencia Atiencia Atiencia</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/detallesBasedatosPrueba.xlsx
+++ b/detallesBasedatosPrueba.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -615,22 +615,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>51299772</t>
+          <t>4857856</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Victoria Melannye Tibanta Miranda</t>
+          <t>PLANTILLA DE APORTES</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1728222044155</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1728220441</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -638,15 +638,11 @@
           <t>PLANTILLA DE APORTES</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>409</t>
-        </is>
+      <c r="F12" t="n">
+        <v>32</v>
+      </c>
+      <c r="G12" t="n">
+        <v>23</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -657,64 +653,60 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>45842232</t>
+          <t>45785869</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Victoria Melannye Tibanta Miranda</t>
+          <t>Raul Alejandro Sosa</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1728222044155</t>
+          <t>172845688978</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1728220441</t>
+          <t>1548785225</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>RESPONSABILIDAD PATRONAL</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>337</t>
-        </is>
+          <t>PLANTILLA DE APORTES</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>45.32</v>
+      </c>
+      <c r="G13" t="n">
+        <v>25.26</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Dr. Atiencia Atiencia Atiencia Atiencia</t>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>51299772</t>
+          <t>45785887</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Victoria Melannye Tibanta Miranda</t>
+          <t>Raul Alejandro Sosa</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1728222044155</t>
+          <t>172845688978</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1728220441</t>
+          <t>1548785225</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -723,48 +715,48 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>164.56</v>
+        <v>45.25</v>
       </c>
       <c r="G14" t="n">
-        <v>409.32</v>
+        <v>15.26</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Dr. Atiencia Atiencia Atiencia Atiencia</t>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>458965</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Victoria Melannye Tibanta Miranda</t>
+          <t>Alexander Benitez</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1728222044155</t>
+          <t>1458789</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1728220441</t>
+          <t>1728224557</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PLANTILLA DE APORTES</t>
+          <t>FONDO DE RESERVA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>45.23</v>
       </c>
       <c r="G15" t="n">
-        <v>12</v>
+        <v>12.25</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -775,22 +767,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>235689</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Victoria Melannye Tibanta Miranda</t>
+          <t>Alexander Benitez</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1728222044155</t>
+          <t>1458789</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1728220441</t>
+          <t>1728224557</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -799,10 +791,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>12</v>
+        <v>45.23</v>
       </c>
       <c r="G16" t="n">
-        <v>12</v>
+        <v>12.25</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -813,22 +805,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>457896</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Victoria Melannye Tibanta Miranda</t>
+          <t>Josue Alberto Ramirez Arboleda</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1728222044155</t>
+          <t>174578569933</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1728220441</t>
+          <t>1245785689</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -837,36 +829,36 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>12.25</v>
       </c>
       <c r="G17" t="n">
-        <v>12</v>
+        <v>12.23</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Dr. Atiencia Atiencia Atiencia Atiencia</t>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>451278</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Victoria Melannye Tibanta Miranda</t>
+          <t>Josue Alberto Ramirez Arboleda</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1728222044155</t>
+          <t>174578569933</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1728220441</t>
+          <t>1245785689</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -875,90 +867,52 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>150.26</v>
       </c>
       <c r="G18" t="n">
-        <v>12</v>
+        <v>325.26</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Dr. Atiencia Atiencia Atiencia Atiencia</t>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>561245</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Victoria Melannye Tibanta Miranda</t>
+          <t>Josue Alberto Ramirez Arboleda</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1728222044155</t>
+          <t>174578569933</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1728220441</t>
+          <t>1245785689</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PLANTILLA DE APORTES</t>
+          <t>PRESTAMOS</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>12</v>
+        <v>152.23</v>
       </c>
       <c r="G19" t="n">
-        <v>12</v>
+        <v>321.23</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Dr. Atiencia Atiencia Atiencia Atiencia</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Victoria Melannye Tibanta Miranda</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1728222044155</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1728220441</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>PLANTILLA DE APORTES</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>32</v>
-      </c>
-      <c r="G20" t="n">
-        <v>23</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Dr. Atiencia Atiencia Atiencia Atiencia</t>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
         </is>
       </c>
     </row>

--- a/detallesBasedatosPrueba.xlsx
+++ b/detallesBasedatosPrueba.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -916,6 +916,295 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>5698</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>AAAA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>456789123</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>PLANTILLA DE APORTES</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>100.25</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>100</v>
+      </c>
+      <c r="H20" t="n">
+        <v>130</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AAAA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>456789123</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>PLANTILLA DE APORTES</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>100.25</v>
+      </c>
+      <c r="G21" t="n">
+        <v>100</v>
+      </c>
+      <c r="H21" t="n">
+        <v>130</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>457845</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Peter Patricio Tene Ojeda</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>174582556</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>174582556001</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>PLANTILLA DE APORTES</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>152.23</v>
+      </c>
+      <c r="G22" t="n">
+        <v>204.26</v>
+      </c>
+      <c r="H22" t="n">
+        <v>265.538</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>457888</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Peter Patricio Tene Ojeda</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>174582556</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>174582556001</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>PLANTILLA DE APORTES</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>98.56</v>
+      </c>
+      <c r="G23" t="n">
+        <v>150.47</v>
+      </c>
+      <c r="H23" t="n">
+        <v>195.611</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>457896</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Peter Patricio Tene Ojeda</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>174582556</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>174582556001</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>PLANTILLA DE APORTES</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>78.54000000000001</v>
+      </c>
+      <c r="G24" t="n">
+        <v>123.25</v>
+      </c>
+      <c r="H24" t="n">
+        <v>160.225</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>457887</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Peter Patricio Tene Ojeda</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>174582556</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>174582556001</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>PLANTILLA DE APORTES</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>55.85</v>
+      </c>
+      <c r="G25" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="H25" t="n">
+        <v>116.87</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>454578</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Peter Patricio Tene Ojeda</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>174582556</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>174582556001</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>PLANTILLA DE APORTES</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>66.58</v>
+      </c>
+      <c r="G26" t="n">
+        <v>94.84999999999999</v>
+      </c>
+      <c r="H26" t="n">
+        <v>123.305</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/detallesBasedatosPrueba.xlsx
+++ b/detallesBasedatosPrueba.xlsx
@@ -9,19 +9,27 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -45,17 +53,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +462,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -468,149 +477,156 @@
     <col width="29.140625" customWidth="1" min="5" max="5"/>
     <col width="17" customWidth="1" min="6" max="6"/>
     <col width="31.85546875" customWidth="1" min="8" max="8"/>
+    <col width="34.28515625" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Titulo de Credito </t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">RUC </t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">ID Number </t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CONCEPTO </t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VALOR CAPITAL </t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>VALOS  30%</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Concepto </t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Valor Capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Valor 30%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Lawyer</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Judge</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="1" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n"/>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n"/>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" s="4" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n"/>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+      <c r="H11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -958,6 +974,11 @@
           <t>Dr. Christian Santiago Izurieta Cruz</t>
         </is>
       </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Ing. AAAA</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -985,8 +1006,10 @@
           <t>PLANTILLA DE APORTES</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>100.25</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>100.25</t>
+        </is>
       </c>
       <c r="G21" t="n">
         <v>100</v>
@@ -999,6 +1022,11 @@
           <t>Dr. Christian Santiago Izurieta Cruz</t>
         </is>
       </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Ing. AAAA</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1026,18 +1054,25 @@
           <t>PLANTILLA DE APORTES</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>152.23</v>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>152.23</t>
+        </is>
       </c>
       <c r="G22" t="n">
         <v>204.26</v>
       </c>
       <c r="H22" t="n">
-        <v>265.538</v>
+        <v>265.54</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Lic. Alexander Javier Miranda Granero</t>
         </is>
       </c>
     </row>
@@ -1067,18 +1102,25 @@
           <t>PLANTILLA DE APORTES</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>98.56</v>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
       </c>
       <c r="G23" t="n">
         <v>150.47</v>
       </c>
       <c r="H23" t="n">
-        <v>195.611</v>
+        <v>195.61</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Lic. Alexander Javier Miranda Granero</t>
         </is>
       </c>
     </row>
@@ -1108,18 +1150,25 @@
           <t>PLANTILLA DE APORTES</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>78.54000000000001</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>78.54</t>
+        </is>
       </c>
       <c r="G24" t="n">
         <v>123.25</v>
       </c>
       <c r="H24" t="n">
-        <v>160.225</v>
+        <v>160.22</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Lic. Alexander Javier Miranda Granero</t>
         </is>
       </c>
     </row>
@@ -1149,8 +1198,10 @@
           <t>PLANTILLA DE APORTES</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>55.85</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>55.85</t>
+        </is>
       </c>
       <c r="G25" t="n">
         <v>89.90000000000001</v>
@@ -1163,6 +1214,11 @@
           <t>Dr. Christian Santiago Izurieta Cruz</t>
         </is>
       </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Lic. Alexander Javier Miranda Granero</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1190,18 +1246,167 @@
           <t>PLANTILLA DE APORTES</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>66.58</v>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>66.58</t>
+        </is>
       </c>
       <c r="G26" t="n">
         <v>94.84999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>123.305</v>
+        <v>123.3</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Lic. Alexander Javier Miranda Granero</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>457878</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>AAAA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>456789123</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>PLANTILLA DE APORTES</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>124.25</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>453.26</v>
+      </c>
+      <c r="H27" t="n">
+        <v>589.24</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Ing. AAAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Peter Patricio Tene Ojeda</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>174582556</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>174582556001</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>PLANTILLA DE APORTES</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>45.85</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>245.58</v>
+      </c>
+      <c r="H28" t="n">
+        <v>319.25</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Lic. Alexander Javier Miranda Granero</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Peter Patricio Tene Ojeda</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>174582556</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>174582556001</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>PLANTILLA DE APORTES</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="G29" t="n">
+        <v>245.58</v>
+      </c>
+      <c r="H29" t="n">
+        <v>319.254</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Lic. Alexander Javier Miranda Granero</t>
         </is>
       </c>
     </row>

--- a/detallesBasedatosPrueba.xlsx
+++ b/detallesBasedatosPrueba.xlsx
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
@@ -1062,8 +1062,10 @@
       <c r="G22" t="n">
         <v>204.26</v>
       </c>
-      <c r="H22" t="n">
-        <v>265.54</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>265.00</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1110,8 +1112,10 @@
       <c r="G23" t="n">
         <v>150.47</v>
       </c>
-      <c r="H23" t="n">
-        <v>195.61</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>195.00</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1158,8 +1162,10 @@
       <c r="G24" t="n">
         <v>123.25</v>
       </c>
-      <c r="H24" t="n">
-        <v>160.22</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>160.00</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1206,8 +1212,10 @@
       <c r="G25" t="n">
         <v>89.90000000000001</v>
       </c>
-      <c r="H25" t="n">
-        <v>116.87</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>116.00</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1254,8 +1262,10 @@
       <c r="G26" t="n">
         <v>94.84999999999999</v>
       </c>
-      <c r="H26" t="n">
-        <v>123.3</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>123.00</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1339,19 +1349,21 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PLANTILLA DE APORTES</t>
+          <t>PRESTAMOS</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>45.85</t>
+          <t>12.25</t>
         </is>
       </c>
       <c r="G28" t="n">
         <v>245.58</v>
       </c>
-      <c r="H28" t="n">
-        <v>319.25</v>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>319.00</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1405,6 +1417,206 @@
         </is>
       </c>
       <c r="J29" t="inlineStr">
+        <is>
+          <t>Lic. Alexander Javier Miranda Granero</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Peter Patricio Tene Ojeda</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>174582556</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>174582556001</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>PRESTAMOS</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>45.85</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>48.85</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Lic. Alexander Javier Miranda Granero</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Peter Patricio Tene Ojeda</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>174582556</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>174582556001</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>PRESTAMOS</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>68.98</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>98.65000000000001</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>128.00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Lic. Alexander Javier Miranda Granero</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Peter Patricio Tene Ojeda</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>174582556</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>174582556001</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>PRESTAMOS</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>48.59</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>200.56</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>260.00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Lic. Alexander Javier Miranda Granero</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Peter Patricio Tene Ojeda</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>174582556</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>174582556001</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>PLANTILLA DE APORTES</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>156.23</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>89.56</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>116.00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>Lic. Alexander Javier Miranda Granero</t>
         </is>

--- a/detallesBasedatosPrueba.xlsx
+++ b/detallesBasedatosPrueba.xlsx
@@ -844,15 +844,27 @@
           <t>PLANTILLA DE APORTES</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>12.25</v>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
       </c>
       <c r="G17" t="n">
         <v>12.23</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Dr. Christian Santiago Izurieta Cruz</t>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Lic. Pedro Peralta</t>
         </is>
       </c>
     </row>
@@ -882,15 +894,27 @@
           <t>PLANTILLA DE APORTES</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>150.26</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>150.26</t>
+        </is>
       </c>
       <c r="G18" t="n">
         <v>325.26</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Dr. Christian Santiago Izurieta Cruz</t>
+          <t>422.00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Lic. Pedro Peralta</t>
         </is>
       </c>
     </row>
@@ -920,15 +944,27 @@
           <t>PRESTAMOS</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>152.23</v>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>152.23</t>
+        </is>
       </c>
       <c r="G19" t="n">
         <v>321.23</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Dr. Christian Santiago Izurieta Cruz</t>
+          <t>417.00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Lic. Pedro Peralta</t>
         </is>
       </c>
     </row>

--- a/detallesBasedatosPrueba.xlsx
+++ b/detallesBasedatosPrueba.xlsx
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PRESTAMOS</t>
+          <t>PLANTILLA DE APORTES</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1655,6 +1655,680 @@
       <c r="J33" t="inlineStr">
         <is>
           <t>Lic. Alexander Javier Miranda Granero</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ALEXANDER TIBANTA MIRANDA FRANCISCO</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1728220441001</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1728220441</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>PLANTILLA DE APORTES</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="G34" t="n">
+        <v>125.36</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>162.00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Dr. Jorge Gonzalo Atiencia Gálvez</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Mgs. Tibanta Tibanta</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ALEXANDER TIBANTA MIRANDA FRANCISCO</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1728220441001</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1728220441</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>PLANTILLA DE APORTES</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>152.36</v>
+      </c>
+      <c r="G35" t="n">
+        <v>258.58</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>336.00</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Dr. Jorge Gonzalo Atiencia Gálvez</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Mgs. Tibanta Tibanta</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ALEXANDER TIBANTA MIRANDA FRANCISCO</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1728220441001</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1728220441</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>PLANTILLA DE APORTES</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>123.45</v>
+      </c>
+      <c r="G36" t="n">
+        <v>159.26</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>207.00</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Dr. Jorge Gonzalo Atiencia Gálvez</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Mgs. Tibanta Tibanta</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ALEXANDER TIBANTA MIRANDA FRANCISCO</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1728220441001</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1728220441</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>PLANILLA DE PRESTAMOS</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>158.47</v>
+      </c>
+      <c r="G37" t="n">
+        <v>356.48</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>463.00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Dr. Jorge Gonzalo Atiencia Gálvez</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Mgs. Tibanta Tibanta</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ALEXANDER TIBANTA MIRANDA FRANCISCO</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1728220441001</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1728220441</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>PLANILLA DE PRESTAMOS</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>478.25</v>
+      </c>
+      <c r="G38" t="n">
+        <v>258.69</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>336.00</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Dr. Jorge Gonzalo Atiencia Gálvez</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Mgs. Tibanta Tibanta</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ALEXANDER TIBANTA MIRANDA FRANCISCO</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1728220441001</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1728220441</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>PLANILLA DE PRESTAMOS</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>300.25</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>425.12</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>552.00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Dr. Jorge Gonzalo Atiencia Gálvez</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Mgs. Tibanta Tibanta</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ALEXANDER TIBANTA MIRANDA FRANCISCO</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1728220441001</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1728220441</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>PLANILLA DE RESPONSABILIDAD PATRONAL</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>456.25</v>
+      </c>
+      <c r="G40" t="n">
+        <v>789.125</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>1025.00</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Dr. Jorge Gonzalo Atiencia Gálvez</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Mgs. Tibanta Tibanta</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ALEXANDER TIBANTA MIRANDA FRANCISCO</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1728220441001</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1728220441</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>PLANILLA DE RESPONSABILIDAD PATRONAL</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>456.258</v>
+      </c>
+      <c r="G41" t="n">
+        <v>500.12</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>650.00</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Dr. Jorge Gonzalo Atiencia Gálvez</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Mgs. Tibanta Tibanta</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ALEXANDER TIBANTA MIRANDA FRANCISCO</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1728220441001</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1728220441</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>PLANILLA DE FONDOS DE RESERVA</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>45.12</v>
+      </c>
+      <c r="G42" t="n">
+        <v>100.25</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>130.00</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Dr. Jorge Gonzalo Atiencia Gálvez</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Mgs. Tibanta Tibanta</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ALEXANDER TIBANTA MIRANDA FRANCISCO</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1728220441001</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1728220441</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>PLANILLA DE FONDOS DE RESERVA</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>66.58</v>
+      </c>
+      <c r="G43" t="n">
+        <v>75.12</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Dr. Jorge Gonzalo Atiencia Gálvez</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Mgs. Tibanta Tibanta</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4578</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>BBBB</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>12457845001</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12457855</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>PLANILLA DE FONDOS DE RESERVA</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>45.25</v>
+      </c>
+      <c r="G44" t="n">
+        <v>123.52</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>160.00</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>AAAAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4579</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BBBB</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>12457845001</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>12457855</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>PLANILLA DE FONDOS DE RESERVA</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>45.25</v>
+      </c>
+      <c r="G45" t="n">
+        <v>123.52</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>160.00</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>AAAAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4580</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>BBBB</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>12457845001</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12457855</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>PLANILLA DE FONDOS DE RESERVA</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>45.25</v>
+      </c>
+      <c r="G46" t="n">
+        <v>123.52</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>160.00</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>AAAAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>124578</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>BBBB</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>12457845001</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>12457855</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>PLANTILLA DE APORTES</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="G47" t="n">
+        <v>123.25</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>160.00</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Dr. Christian Santiago Izurieta Cruz</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>AAAAA</t>
         </is>
       </c>
     </row>
